--- a/TCO/Pruebas/P11.xlsx
+++ b/TCO/Pruebas/P11.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,22 +462,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Cargos</t>
+          <t>Cargo 16</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Abonos</t>
+          <t>Abono 16</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ColExtra1</t>
+          <t>Cargo 8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ColExtra2</t>
+          <t>Abono 8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fórmula 16</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fórmula 8</t>
         </is>
       </c>
     </row>
@@ -503,18 +513,28 @@
           <t>Santander 56175</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -540,18 +560,28 @@
           <t>Rentas</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>-38000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>38000.00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3040.00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -575,18 +605,28 @@
           <t>Papeleria</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>-4637.93</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4637.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>742.07</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -612,18 +652,28 @@
           <t>Honorarios</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>-21551.7</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>21551.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3448.27</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -649,18 +699,28 @@
           <t xml:space="preserve">Mantenimiento de Eq. Transporte </t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>-6474.93</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6474.93</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>517.99</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -684,18 +744,28 @@
           <t>Laptop Toshiba Dynabook</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>-4998.28</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4998.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>799.72</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -719,18 +789,28 @@
           <t>Mensajeria y paqueteria</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>-500</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -756,18 +836,28 @@
           <t>Soporte Tecnico Garantias</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>-500</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -793,18 +883,28 @@
           <t>Bancomer</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>-2137.06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2137.06</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>170.96</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -828,18 +928,28 @@
           <t>Facturas</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>-1234.5</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1234.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>197.52</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -863,340 +973,442 @@
           <t>Telefono</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>-343.97</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>343.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>55.04</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17317</v>
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>COP Diciembre</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5100-005-00</t>
+          <t>5100-004-00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sistema de seguridad </t>
+          <t>Infonavit y Sar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sistema de seguridad </t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>-1831.9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+          <t>Infonavit y Sar</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>80448.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12871.78</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>41255</v>
+        <v>17317</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5100-023-00</t>
+          <t>5100-005-00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Copias</t>
+          <t xml:space="preserve">Sistema de seguridad </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Copias</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>-625</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+          <t xml:space="preserve">Sistema de seguridad </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1831.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>293.10</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>16445</v>
+        <v>41255</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5100-013-00</t>
+          <t>5100-023-00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bolsas de plastico</t>
+          <t>Copias</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bolsas de plastico</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>-106.29</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+          <t>Copias</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>625.00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>1864</v>
+        <v>16445</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5100-024-00</t>
+          <t>5100-013-00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Publicidad</t>
+          <t>Bolsas de plastico</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Publicidad</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>-298.15</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+          <t>Bolsas de plastico</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>106.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>349184</v>
+        <v>1864</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5100-017-00</t>
+          <t>5100-024-00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Papeleria</t>
+          <t>Publicidad</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Papeleria</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>-698.4299999999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+          <t>Publicidad</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>298.15</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>224</v>
+        <v>349184</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5100-021-00</t>
+          <t>5100-017-00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Facturas</t>
+          <t>Papeleria</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Facturas</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>-1377.05</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+          <t>Papeleria</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>698.43</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>55.87</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" t="n">
-        <v>7192</v>
+        <v>224</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5100-012-00</t>
+          <t>5100-021-00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
+          <t>Facturas</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>-185.18</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+          <t>Facturas</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1377.05</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>110.16</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>139362</v>
+        <v>7192</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5100-013-00</t>
+          <t>5100-012-00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bolsas de plastico</t>
+          <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bolsas de plastico</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>-264.98</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+          <t>Mantenimiento de Instalaciones</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>185.18</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" t="n">
-        <v>60966</v>
+        <v>139362</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5100-012-00</t>
+          <t>5100-013-00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
+          <t>Bolsas de plastico</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>-162.04</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+          <t>Bolsas de plastico</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>264.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>42.40</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>50369</v>
+        <v>60966</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1213,60 +1425,80 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>-555.5599999999999</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>162.04</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n">
-        <v>311</v>
+        <v>50369</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5100-009-00</t>
+          <t>5100-012-00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mensajeria y paqueteria</t>
+          <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mensajeria y paqueteria</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>-334.32</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+          <t>Mantenimiento de Instalaciones</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>555.56</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1283,130 +1515,170 @@
           <t>Mensajeria y paqueteria</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>-957.29</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>334.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>53.49</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>623721</v>
+        <v>310</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5100-012-00</t>
+          <t>5100-009-00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
+          <t>Mensajeria y paqueteria</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>-76.86</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+          <t>Mensajeria y paqueteria</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>957.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>153.17</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>348472</v>
+        <v>623721</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5100-017-00</t>
+          <t>5100-012-00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Papeleria</t>
+          <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Papeleria</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>-36.1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+          <t>Mantenimiento de Instalaciones</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>16203652</v>
+        <v>348472</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5100-015-00</t>
+          <t>5100-017-00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Agua</t>
+          <t>Papeleria</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>-237</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+          <t>Papeleria</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>16202988</v>
+        <v>16203652</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1423,25 +1695,35 @@
           <t>Agua</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>-414.14</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>237.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>37.92</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>16200434</v>
+        <v>16202988</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1458,25 +1740,35 @@
           <t>Agua</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>-122</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>414.14</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>33.13</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>16198833</v>
+        <v>16200434</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1493,95 +1785,125 @@
           <t>Agua</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>-150.6</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>122.00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>1414</v>
+        <v>16198833</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5100-014-00</t>
+          <t>5100-015-00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Articulos de limpieza</t>
+          <t>Agua</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Articulos de limpieza</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>-300</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+          <t>Agua</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>150.60</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>399002</v>
+        <v>1414</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5100-012-00</t>
+          <t>5100-014-00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
+          <t>Articulos de limpieza</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>-111.21</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+          <t>Articulos de limpieza</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>6979</v>
+        <v>399002</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1598,25 +1920,35 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>-125.93</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>111.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>7187</v>
+        <v>6979</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1633,25 +1965,35 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>-82.88</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>125.93</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>7189</v>
+        <v>7187</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1668,25 +2010,35 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>-114.82</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>7191</v>
+        <v>7189</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1703,25 +2055,35 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>-73.15000000000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>114.82</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>398976</v>
+        <v>7191</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1738,95 +2100,125 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>-343.1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>73.15</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>469095</v>
+        <v>398976</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5100-014-00</t>
+          <t>5100-012-00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Articulos de limpieza</t>
+          <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Articulos de limpieza</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>-155.37</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+          <t>Mantenimiento de Instalaciones</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>343.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" t="n">
-        <v>348305</v>
+        <v>469095</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5100-017-00</t>
+          <t>5100-014-00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Papeleria</t>
+          <t>Articulos de limpieza</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Papeleria</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>-1615.45</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+          <t>Articulos de limpieza</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>155.37</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" t="n">
-        <v>348304</v>
+        <v>348305</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1843,342 +2235,442 @@
           <t>Papeleria</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>-1809.51</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1615.45</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>129.24</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>138737</v>
+        <v>348304</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5100-013-00</t>
+          <t>5100-017-00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bolsas de plastico</t>
+          <t>Papeleria</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bolsas de plastico</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>-188.88</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+          <t>Papeleria</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1809.51</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>144.76</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" t="n">
-        <v>6954</v>
+        <v>138737</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5100-012-00</t>
+          <t>5100-013-00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
+          <t>Bolsas de plastico</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>-162.04</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+          <t>Bolsas de plastico</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>188.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" t="n">
-        <v>117242</v>
+        <v>6954</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5100-009-00</t>
+          <t>5100-012-00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mensajeria y paqueteria</t>
+          <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mensajeria y paqueteria</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>-771.3200000000001</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+          <t>Mantenimiento de Instalaciones</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>162.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B44" t="n">
-        <v>4887</v>
+        <v>117242</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5100-026-00</t>
+          <t>5100-009-00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Accesorios para computadoras</t>
+          <t>Mensajeria y paqueteria</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Accesorios para computadoras</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>-578.7</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+          <t>Mensajeria y paqueteria</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>771.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>123.41</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" t="n">
-        <v>30899</v>
+        <v>4887</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5100-034-00</t>
+          <t>5100-026-00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Coffe Break</t>
+          <t>Accesorios para computadoras</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Coffe Break</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>-389</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+          <t>Accesorios para computadoras</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>578.70</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>46.30</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" t="n">
-        <v>3962</v>
+        <v>30899</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5100-007-00</t>
+          <t>5100-034-00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mantenimiento de Eq. Transporte </t>
+          <t>Coffe Break</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mantenimiento de Eq. Transporte </t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>-936.77</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+          <t>Coffe Break</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>389.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B47" t="n">
-        <v>469</v>
+        <v>3962</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5100-009-00</t>
+          <t>5100-007-00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mensajeria y paqueteria</t>
+          <t xml:space="preserve">Mantenimiento de Eq. Transporte </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mensajeria y paqueteria</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>-318.92</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+          <t xml:space="preserve">Mantenimiento de Eq. Transporte </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>936.77</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>69</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Llaves</t>
-        </is>
+        <v>67</v>
+      </c>
+      <c r="B48" t="n">
+        <v>469</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5100-025-00</t>
+          <t>5100-009-00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Gastos varios</t>
+          <t>Mensajeria y paqueteria</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Gastos varios</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>-430</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+          <t>Mensajeria y paqueteria</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>318.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>71</v>
-      </c>
-      <c r="B49" t="n">
-        <v>348196</v>
+        <v>69</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Llaves</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5100-017-00</t>
+          <t>5100-025-00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Papeleria</t>
+          <t>Gastos varios</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Papeleria</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>-946.3</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+          <t>Gastos varios</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>430.00</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B50" t="n">
-        <v>348195</v>
+        <v>348196</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2195,97 +2687,127 @@
           <t>Papeleria</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>-1257.4</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>946.30</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B51" t="n">
-        <v>646073</v>
+        <v>348195</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5100-014-00</t>
+          <t>5100-017-00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Articulos de limpieza</t>
+          <t>Papeleria</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Articulos de limpieza</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>-1058.33</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+          <t>Papeleria</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1257.40</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>100.59</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Candados</t>
-        </is>
+        <v>75</v>
+      </c>
+      <c r="B52" t="n">
+        <v>646073</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5100-012-00</t>
+          <t>5100-014-00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
+          <t>Articulos de limpieza</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>-439.66</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+          <t>Articulos de limpieza</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1058.33</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
-      </c>
-      <c r="B53" t="n">
-        <v>61543</v>
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Candados</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2302,235 +2824,305 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>-106.48</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>439.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>328</v>
+        <v>61543</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5100-009-00</t>
+          <t>5100-012-00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mensajeria y paqueteria</t>
+          <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mensajeria y paqueteria</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>-682.8200000000001</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+          <t>Mantenimiento de Instalaciones</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>106.48</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>990285124</v>
+        <v>328</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5100-018-00</t>
+          <t>5100-009-00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Impuestos y Derechos</t>
+          <t>Mensajeria y paqueteria</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Impuestos y Derechos</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>-985.67</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+          <t>Mensajeria y paqueteria</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>682.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>109.25</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56" t="n">
-        <v>328</v>
+        <v>990285124</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5100-015-00</t>
+          <t>5100-018-00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Agua</t>
+          <t>Impuestos y Derechos</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>-267.34</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+          <t>Impuestos y Derechos</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>985.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>157.71</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B57" t="n">
-        <v>16513</v>
+        <v>328</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5100-013-00</t>
+          <t>5100-015-00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Bolsas de plastico</t>
+          <t>Agua</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bolsas de plastico</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>-280.8</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+          <t>Agua</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>267.34</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>42.77</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B58" t="n">
-        <v>7561</v>
+        <v>16513</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5100-012-00</t>
+          <t>5100-013-00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
+          <t>Bolsas de plastico</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mantenimiento de Instalaciones</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>-735.64</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+          <t>Bolsas de plastico</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>280.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>44.93</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" t="n">
-        <v>2028844</v>
+        <v>7561</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5100-008-00</t>
+          <t>5100-012-00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Gastos de viaje y hospedaje</t>
+          <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Gastos de viaje y hospedaje</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>-651.74</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+          <t>Mantenimiento de Instalaciones</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>735.64</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>58.85</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B60" t="n">
-        <v>61333</v>
+        <v>2028844</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2547,195 +3139,253 @@
           <t>Gastos de viaje y hospedaje</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>-423.73</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>651.74</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>104.28</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B61" t="n">
         <v>61333</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5100-010-01</t>
+          <t>5100-008-00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Impuesto Hospedaje</t>
+          <t>Gastos de viaje y hospedaje</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Impuesto Hospedaje</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>-8.470000000000001</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+          <t>Gastos de viaje y hospedaje</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>423.73</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62" t="n">
-        <v>35024</v>
+        <v>61333</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5100-008-00</t>
+          <t>5100-010-01</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Gastos de viaje y hospedaje</t>
+          <t>Impuesto Hospedaje</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Gastos de viaje y hospedaje</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>-552.02</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+          <t>Impuesto Hospedaje</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B63" t="n">
         <v>35024</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5100-010-01</t>
+          <t>5100-008-00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Impuesto Hospedaje</t>
+          <t>Gastos de viaje y hospedaje</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Impuesto Hospedaje</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>-16.56</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+          <t>Gastos de viaje y hospedaje</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>552.02</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B64" t="n">
-        <v>1874</v>
+        <v>35024</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5100-024-00</t>
+          <t>5100-010-01</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Publicidad</t>
+          <t>Impuesto Hospedaje</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Publicidad</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>-100</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+          <t>Impuesto Hospedaje</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1874</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5200-001-01</t>
+          <t>5100-024-00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Publicidad</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Santander</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>-4936.66</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+          <t>Publicidad</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2748,66 +3398,133 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5200-001-04</t>
+          <t>5200-001-01</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Azteca</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Azteca</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>-24</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+          <t>Santander</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>4936.66</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>394.93</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>1</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>5200-001-04</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Azteca</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Azteca</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="n">
         <v>724461</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>5200-001-03</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Comisiones Billpocket</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>Comisiones Billpocket</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>-4777.01</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4777.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>764.32</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2820,7 +3537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2856,22 +3573,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Cargos</t>
+          <t>Cargo 16</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Abonos</t>
+          <t>Abono 16</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ColExtra1</t>
+          <t>Cargo 8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ColExtra2</t>
+          <t>Abono 8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fórmula 16</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fórmula 8</t>
         </is>
       </c>
     </row>
@@ -2899,18 +3626,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>-25862.07</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>25862.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4137.93</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2936,18 +3673,28 @@
           <t>IVA de Gastos 8%</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>-3040</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3040.00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>243.20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2973,18 +3720,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>-86206.89999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>86206.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13793.10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3008,18 +3765,28 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-7892.12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3045,18 +3812,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>-298488.45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>298488.45</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>23879.08</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3080,18 +3857,28 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>-742.0700000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>742.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>118.73</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3117,18 +3904,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>-86206.89999999999</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>86206.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>13793.10</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3152,18 +3949,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>-23237.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>23237.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3717.94</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -3187,18 +3994,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>-44374.14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>44374.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>7099.86</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3222,18 +4039,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>-18655.17</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>18655.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2984.83</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3259,18 +4086,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>-25862.07</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>25862.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4137.93</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3294,18 +4131,28 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-3550.86</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3329,18 +4176,28 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-199</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3364,18 +4221,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>-147231.9</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>147231.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>23557.10</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3401,18 +4268,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>-16163.79</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>16163.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2586.21</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3438,18 +4315,28 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>-3448.27</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3448.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>551.72</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3475,18 +4362,28 @@
           <t>IVA de Gastos 8%</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>-518</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>518.00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3510,18 +4407,28 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-836.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3545,18 +4452,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>-20387.95</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>20387.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3262.07</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3580,18 +4497,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>-28705.17</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>28705.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4592.83</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3617,18 +4544,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>-277777.78</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>277777.78</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>22222.22</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3654,18 +4591,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>-25862.07</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>25862.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4137.93</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3691,18 +4638,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>-111111.11</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>111111.11</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>8888.89</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3728,18 +4685,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>-86206.89999999999</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>86206.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>13793.10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3763,18 +4730,28 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>-799.72</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>799.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>127.96</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3798,18 +4775,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>-176585.34</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>176585.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>28253.65</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3835,18 +4822,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>-212962.96</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>212962.96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>17037.04</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3872,18 +4869,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>-92592.59</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>92592.59</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>7407.41</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3907,18 +4914,28 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-323</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3944,18 +4961,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>-13920</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>13920.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2227.20</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3979,18 +5006,28 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-1821.28</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4016,18 +5053,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>-86206.89999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>86206.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>13793.10</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4051,18 +5098,28 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-323</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4086,18 +5143,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>-261469.83</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>261469.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>41835.17</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4123,18 +5190,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>-8620.690000000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8620.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1379.31</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4160,18 +5237,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>-25862.07</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>25862.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>4137.93</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4197,18 +5284,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>-277777.78</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>277777.78</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>22222.22</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4234,18 +5331,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>-222222.22</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>222222.22</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>17777.78</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4271,18 +5378,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>-43102.58</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>43102.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>6896.41</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4308,18 +5425,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>-86206.89999999999</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>86206.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>13793.10</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4343,18 +5470,28 @@
           <t>IVA de Gastos 8%</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>-40</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4380,18 +5517,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>-20719.81</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>20719.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>3315.17</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4415,18 +5562,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>-14775.86</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>14775.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2364.14</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4452,18 +5609,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>-34482.76</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>34482.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>5517.24</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4487,18 +5654,28 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-836.4</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4524,18 +5701,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>-92592.59</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>92592.59</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>7407.41</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4559,18 +5746,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>-110226.73</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>110226.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>17636.28</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4596,18 +5793,28 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>-80</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4631,18 +5838,28 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>-8676.719999999999</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8676.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1388.28</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4668,18 +5885,28 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>-1135.62</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1135.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>181.70</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4703,18 +5930,28 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>-197.52</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>197.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4740,18 +5977,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>-381624.36</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>381624.36</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>30529.95</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4777,18 +6024,28 @@
           <t>Santander 56175</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-4104.77</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4814,18 +6071,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>-138888.89</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>138888.89</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>11111.11</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4849,18 +6116,28 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>-55.03</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>55.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4886,18 +6163,28 @@
           <t>Infonavit y Sar</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>-80448.63</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>80448.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>12871.78</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4921,18 +6208,28 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>-293.1</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>293.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4958,18 +6255,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>-259259.26</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>259259.26</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>20740.74</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4995,18 +6302,28 @@
           <t>IVA por Pagar</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>-2027</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2027.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>324.32</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5030,18 +6347,28 @@
           <t>IVA de Gastos 8%</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>-50</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5067,18 +6394,28 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>-83333.33</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>83333.33</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>6666.67</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5104,18 +6441,28 @@
           <t>Santander 56175</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-15000</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5141,18 +6488,28 @@
           <t>Santander 56175</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-10000</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5176,18 +6533,28 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>-764.3200000000001</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>764.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>122.29</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
